--- a/Archivos_xlsx/entregas_pendientes_modificado.xlsx
+++ b/Archivos_xlsx/entregas_pendientes_modificado.xlsx
@@ -649,7 +649,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Entregado</t>
         </is>
       </c>
       <c r="G7" t="n">

--- a/Archivos_xlsx/entregas_pendientes_modificado.xlsx
+++ b/Archivos_xlsx/entregas_pendientes_modificado.xlsx
@@ -649,7 +649,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Entregado</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="G7" t="n">
